--- a/.NET/Excel2Tsv/testdata/test.xlsx
+++ b/.NET/Excel2Tsv/testdata/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\.NET\Excel2Tsv\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300A0A4A-19E9-42C7-81D0-B428344FEB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A03DD3-E478-4854-82B0-1D20C157A73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="270" windowWidth="16665" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="1065" windowWidth="16665" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>CLM1</t>
     <phoneticPr fontId="1"/>
@@ -64,6 +64,14 @@
     <t>ABCD
 XYZ
 111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CLM4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CLM5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -393,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -404,7 +412,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +422,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -426,7 +437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="75">
+    <row r="3" spans="1:4" ht="75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -437,7 +448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="56.25">
+    <row r="4" spans="1:4" ht="56.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -456,10 +467,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439EB05E-CE6B-4C15-B222-D3EA67E034A6}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -467,7 +478,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,8 +488,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -489,7 +506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="75">
+    <row r="3" spans="1:5" ht="75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -500,7 +517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="56.25">
+    <row r="4" spans="1:5" ht="56.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
